--- a/NewClass/AccountReport/年度損益表.xlsx
+++ b/NewClass/AccountReport/年度損益表.xlsx
@@ -15,7 +15,6 @@
     <sheet name="年度規劃" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -723,11 +722,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>部分負擔/自費/押金收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合作部分負擔/自費/押金-</t>
+    <t>其他收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作其他-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1966,17 +1965,17 @@
     <xf numFmtId="176" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2294,7 +2293,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2311,21 +2310,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="16" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
     </row>
     <row r="2" spans="1:14" s="17" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="104" t="s">
@@ -2496,7 +2495,7 @@
       <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="164" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="2"/>
@@ -2517,7 +2516,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="164" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="35"/>
@@ -2538,7 +2537,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="166" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="35"/>
@@ -2559,7 +2558,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="164" t="s">
         <v>92</v>
       </c>
       <c r="B13" s="35"/>
@@ -2580,7 +2579,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="165" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="35"/>
@@ -2601,7 +2600,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="165" t="s">
         <v>96</v>
       </c>
       <c r="B15" s="2"/>
@@ -2622,7 +2621,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="164" t="s">
         <v>92</v>
       </c>
       <c r="B16" s="2"/>
@@ -2643,7 +2642,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="166" t="s">
+      <c r="A17" s="165" t="s">
         <v>93</v>
       </c>
       <c r="B17" s="2"/>
@@ -2664,7 +2663,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="165" t="s">
         <v>96</v>
       </c>
       <c r="B18" s="2"/>
@@ -2685,7 +2684,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="164" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="2"/>
@@ -2706,7 +2705,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="165" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="2"/>
@@ -2727,7 +2726,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="166" t="s">
+      <c r="A21" s="165" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="2"/>
@@ -2748,7 +2747,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="167" t="s">
+      <c r="A22" s="166" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="2"/>
@@ -2769,7 +2768,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="166" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="2"/>
@@ -2790,7 +2789,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="165" t="s">
+      <c r="A24" s="164" t="s">
         <v>82</v>
       </c>
       <c r="B24" s="2"/>
@@ -2811,7 +2810,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="164" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="2"/>
@@ -2865,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="43">
-        <f t="shared" ref="C27:M27" si="1">SUM(D10:D21,D24:D25) - SUM(D22:D23,D26)</f>
+        <f t="shared" ref="D27:M27" si="1">SUM(D10:D21,D24:D25) - SUM(D22:D23,D26)</f>
         <v>0</v>
       </c>
       <c r="E27" s="43">
@@ -4429,51 +4428,51 @@
         <v>48</v>
       </c>
       <c r="B81" s="148" t="e">
-        <f>(B15-B17)/B5</f>
+        <f t="shared" ref="B81:M81" si="15">(B15-B17)/B5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C81" s="148" t="e">
-        <f>(C15-C17)/C5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D81" s="148" t="e">
-        <f>(D15-D17)/D5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E81" s="148" t="e">
-        <f>(E15-E17)/E5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F81" s="148" t="e">
-        <f>(F15-F17)/F5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G81" s="148" t="e">
-        <f>(G15-G17)/G5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H81" s="148" t="e">
-        <f>(H15-H17)/H5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I81" s="148" t="e">
-        <f>(I15-I17)/I5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J81" s="148" t="e">
-        <f>(J15-J17)/J5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K81" s="148" t="e">
-        <f>(K15-K17)/K5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L81" s="148" t="e">
-        <f>(L15-L17)/L5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M81" s="148" t="e">
-        <f>(M15-M17)/M5</f>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4673,27 +4672,27 @@
         <v>0</v>
       </c>
       <c r="I96" s="90">
-        <f t="shared" ref="I96:N96" si="15">I90-SUM(I92:I94)</f>
+        <f t="shared" ref="I96:N96" si="16">I90-SUM(I92:I94)</f>
         <v>0</v>
       </c>
       <c r="J96" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K96" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L96" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M96" s="90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N96" s="91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O96" s="47"/>
@@ -4881,31 +4880,31 @@
         <v>0</v>
       </c>
       <c r="H106" s="101">
-        <f t="shared" ref="H106:N106" si="16">SUM(H99:H105)</f>
+        <f t="shared" ref="H106:N106" si="17">SUM(H99:H105)</f>
         <v>0</v>
       </c>
       <c r="I106" s="101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J106" s="101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K106" s="101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L106" s="101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M106" s="101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N106" s="101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -4949,31 +4948,31 @@
         <v>0</v>
       </c>
       <c r="H109" s="103">
-        <f t="shared" ref="H109:N109" si="17">H96-H106</f>
+        <f t="shared" ref="H109:N109" si="18">H96-H106</f>
         <v>0</v>
       </c>
       <c r="I109" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J109" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K109" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L109" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M109" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N109" s="103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O109" s="47"/>
